--- a/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
+++ b/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>https://marketplace.visualstudio.com/</t>
   </si>
@@ -79,22 +79,43 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>doubling up</t>
-  </si>
-  <si>
     <t>not allowed, shows email link &amp; browser version &amp; url</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>data not available message</t>
   </si>
   <si>
     <t>works normally</t>
+  </si>
+  <si>
+    <t>re-using the \VS homepage</t>
+  </si>
+  <si>
+    <t>copy to clipboard</t>
+  </si>
+  <si>
+    <t>email hyperlink</t>
+  </si>
+  <si>
+    <t>grid - title hyperlink</t>
+  </si>
+  <si>
+    <t>grid - publisher hyperlink</t>
+  </si>
+  <si>
+    <t>grid - title hover text (full description)</t>
+  </si>
+  <si>
+    <t>grid - reviews as % of installs hover text</t>
+  </si>
+  <si>
+    <t>header - reviews % of installations hover text</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
   </si>
 </sst>
 </file>
@@ -138,7 +159,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,7 +168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,12 +192,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -476,19 +507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -517,10 +548,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -531,10 +562,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -545,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -559,10 +590,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -573,10 +604,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -587,24 +618,41 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -612,115 +660,138 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1"/>
-    <hyperlink ref="E14" r:id="rId2"/>
-    <hyperlink ref="E9" r:id="rId3"/>
-    <hyperlink ref="E10" r:id="rId4"/>
-    <hyperlink ref="E11" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="E8" r:id="rId3"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+    <hyperlink ref="E10" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="E14" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
+++ b/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14790" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>https://marketplace.visualstudio.com/</t>
   </si>
@@ -116,19 +116,34 @@
   </si>
   <si>
     <t>GENERAL</t>
+  </si>
+  <si>
+    <t>opens email client</t>
+  </si>
+  <si>
+    <t>logged out of vs.com</t>
+  </si>
+  <si>
+    <t>incognito mode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -190,18 +205,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -263,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -298,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -748,39 +764,52 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
+++ b/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>https://marketplace.visualstudio.com/</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>works normally</t>
-  </si>
-  <si>
-    <t>re-using the \VS homepage</t>
   </si>
   <si>
     <t>copy to clipboard</t>
@@ -174,7 +171,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,12 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,13 +198,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -526,7 +516,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -594,8 +584,8 @@
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>25</v>
+      <c r="D4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -608,8 +598,8 @@
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -761,55 +751,58 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>32</v>
+      <c r="A17" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>36</v>
+      <c r="B25" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
+++ b/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>https://marketplace.visualstudio.com/</t>
   </si>
@@ -122,19 +122,37 @@
   </si>
   <si>
     <t>incognito mode</t>
+  </si>
+  <si>
+    <t>click vsts tab, then home icon (vsts tab is the highlighted tab), click vsmm button</t>
+  </si>
+  <si>
+    <t>click vsts tab, then home icon (vsts tab is the highlighted tab), click vsmm button, click vscode tab, then home icon, click vsmm button (should show 24 not 66)</t>
+  </si>
+  <si>
+    <t>perform a search, click vsmm button (should say no data available), click 'x' to clear search textbox, click vsmm button (should nolonger say no data available)</t>
+  </si>
+  <si>
+    <t>vsts tab, search for 'agile', vsmm button, oops something went wrong "TypeError: Cannot read property 'toLowerCase' of undefined"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -196,18 +214,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -513,296 +541,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="51" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>22</v>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
+++ b/VisualStudioMarketplaceMetrics/src/VSMarketplaceMetrics/tests/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>https://marketplace.visualstudio.com/</t>
   </si>
@@ -134,19 +134,28 @@
   </si>
   <si>
     <t>vsts tab, search for 'agile', vsmm button, oops something went wrong "TypeError: Cannot read property 'toLowerCase' of undefined"</t>
+  </si>
+  <si>
+    <t>search results that include something with zero downloads (e.g. appveyor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -214,20 +223,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -541,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -853,6 +865,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="32" spans="1:2" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1"/>
